--- a/CASUAL/LA CCT/PATERNO, MA. LOURDES.xlsx
+++ b/CASUAL/LA CCT/PATERNO, MA. LOURDES.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="161">
   <si>
     <t>PERIOD</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t>12/14,15/2023</t>
+  </si>
+  <si>
+    <t>12/27-29/2023</t>
   </si>
 </sst>
 </file>
@@ -903,14 +906,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -920,9 +926,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1812,10 +1815,10 @@
   </sheetPr>
   <dimension ref="A2:K124"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A99" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A111" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E121" sqref="E121"/>
+      <selection pane="bottomLeft" activeCell="L125" sqref="L125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1845,14 +1848,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1865,16 +1868,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>38930</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1887,16 +1890,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1922,18 +1925,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1980,7 +1983,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>33.474000000000004</v>
+        <v>34.474000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4432,11 +4435,11 @@
         <v>45261</v>
       </c>
       <c r="B121" s="20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="20"/>
@@ -4447,7 +4450,9 @@
       <c r="H121" s="39"/>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
+      <c r="K121" s="20" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="48" t="s">
@@ -4503,17 +4508,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -4548,10 +4553,10 @@
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="D137" sqref="D137"/>
-      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4581,14 +4586,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -4599,16 +4604,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>38930</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -4621,14 +4626,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -4654,18 +4659,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/CASUAL/LA CCT/PATERNO, MA. LOURDES.xlsx
+++ b/CASUAL/LA CCT/PATERNO, MA. LOURDES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD505EF6-B296-4DE1-8787-66217DA97883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="162">
   <si>
     <t>PERIOD</t>
   </si>
@@ -519,12 +520,15 @@
   </si>
   <si>
     <t>12/27-29/2023</t>
+  </si>
+  <si>
+    <t>1/18,19/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -906,17 +910,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -926,6 +927,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1437,7 +1441,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1454,25 +1458,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K124" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1484,25 +1488,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K115" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K115" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1809,34 +1813,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A111" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A111" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="L125" sqref="L125"/>
+      <selection pane="bottomLeft" activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1848,16 +1852,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1868,18 +1872,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>38930</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1890,18 +1894,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1909,7 +1913,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1922,24 +1926,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1974,7 +1978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1983,7 +1987,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>34.474000000000004</v>
+        <v>35.724000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1993,12 +1997,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2020,7 +2024,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2040,7 +2044,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -2060,7 +2064,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -2080,7 +2084,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -2100,7 +2104,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -2120,7 +2124,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -2140,7 +2144,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -2160,7 +2164,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -2180,7 +2184,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -2200,7 +2204,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -2226,7 +2230,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -2246,7 +2250,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -2272,7 +2276,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>74</v>
@@ -2294,7 +2298,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>78</v>
@@ -2318,7 +2322,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>79</v>
@@ -2340,7 +2344,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>77</v>
       </c>
@@ -2358,7 +2362,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43466</v>
       </c>
@@ -2378,7 +2382,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43497</v>
       </c>
@@ -2402,7 +2406,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43525</v>
       </c>
@@ -2428,7 +2432,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43556</v>
       </c>
@@ -2448,7 +2452,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43586</v>
       </c>
@@ -2468,7 +2472,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="49"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -2488,7 +2492,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="49"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -2508,7 +2512,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -2528,7 +2532,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -2548,7 +2552,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -2568,7 +2572,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -2588,7 +2592,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -2612,7 +2616,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>107</v>
       </c>
@@ -2630,7 +2634,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -2650,7 +2654,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="49"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -2670,7 +2674,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="49"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -2690,7 +2694,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -2710,7 +2714,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -2730,7 +2734,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -2750,7 +2754,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -2770,7 +2774,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44044</v>
       </c>
@@ -2790,7 +2794,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="49"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44075</v>
       </c>
@@ -2816,7 +2820,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>91</v>
@@ -2838,7 +2842,7 @@
         <v>44084</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>45</v>
@@ -2860,7 +2864,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>91</v>
@@ -2882,7 +2886,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44105</v>
       </c>
@@ -2908,7 +2912,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44136</v>
       </c>
@@ -2928,7 +2932,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44166</v>
       </c>
@@ -2954,7 +2958,7 @@
         <v>44172</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>71</v>
@@ -2978,7 +2982,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>118</v>
       </c>
@@ -2996,7 +3000,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44197</v>
       </c>
@@ -3022,7 +3026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>91</v>
@@ -3044,7 +3048,7 @@
         <v>44225</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44228</v>
       </c>
@@ -3070,7 +3074,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -3092,7 +3096,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44256</v>
       </c>
@@ -3112,7 +3116,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44287</v>
       </c>
@@ -3132,7 +3136,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44317</v>
       </c>
@@ -3152,7 +3156,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44348</v>
       </c>
@@ -3172,7 +3176,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44378</v>
       </c>
@@ -3192,7 +3196,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44409</v>
       </c>
@@ -3216,7 +3220,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44440</v>
       </c>
@@ -3236,7 +3240,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44470</v>
       </c>
@@ -3260,7 +3264,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>91</v>
@@ -3280,7 +3284,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>71</v>
@@ -3302,7 +3306,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44501</v>
       </c>
@@ -3322,7 +3326,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44531</v>
       </c>
@@ -3342,7 +3346,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>125</v>
       </c>
@@ -3360,7 +3364,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44562</v>
       </c>
@@ -3380,7 +3384,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44593</v>
       </c>
@@ -3406,7 +3410,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>45</v>
@@ -3428,7 +3432,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>45</v>
@@ -3450,7 +3454,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44621</v>
       </c>
@@ -3476,7 +3480,7 @@
         <v>44648</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>156</v>
@@ -3496,7 +3500,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="49"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44652</v>
       </c>
@@ -3522,7 +3526,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44682</v>
       </c>
@@ -3548,7 +3552,7 @@
         <v>44707</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>155</v>
@@ -3568,7 +3572,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="49"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44713</v>
       </c>
@@ -3594,7 +3598,7 @@
         <v>44722</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>153</v>
@@ -3616,7 +3620,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>154</v>
@@ -3636,7 +3640,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="49"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44743</v>
       </c>
@@ -3662,7 +3666,7 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>87</v>
@@ -3684,7 +3688,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>152</v>
@@ -3704,7 +3708,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44774</v>
       </c>
@@ -3730,7 +3734,7 @@
         <v>44781</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>91</v>
@@ -3752,7 +3756,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>151</v>
@@ -3772,7 +3776,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44805</v>
       </c>
@@ -3798,7 +3802,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>150</v>
@@ -3818,7 +3822,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44835</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>45</v>
@@ -3866,7 +3870,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>60</v>
@@ -3886,7 +3890,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="49"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>44866</v>
       </c>
@@ -3912,7 +3916,7 @@
         <v>44872</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>147</v>
@@ -3934,7 +3938,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>149</v>
@@ -3954,7 +3958,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44896</v>
       </c>
@@ -3980,7 +3984,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>144</v>
@@ -4002,7 +4006,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>146</v>
@@ -4022,7 +4026,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="48" t="s">
         <v>136</v>
       </c>
@@ -4040,7 +4044,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>44927</v>
       </c>
@@ -4060,7 +4064,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>44958</v>
       </c>
@@ -4080,7 +4084,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>44986</v>
       </c>
@@ -4106,7 +4110,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>87</v>
@@ -4128,7 +4132,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>45</v>
@@ -4150,7 +4154,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45017</v>
       </c>
@@ -4174,7 +4178,7 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45047</v>
       </c>
@@ -4200,7 +4204,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45078</v>
       </c>
@@ -4220,7 +4224,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45108</v>
       </c>
@@ -4246,7 +4250,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>85</v>
@@ -4266,7 +4270,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45139</v>
       </c>
@@ -4292,7 +4296,7 @@
         <v>45141</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>55</v>
@@ -4314,7 +4318,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>45170</v>
       </c>
@@ -4334,7 +4338,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>45200</v>
       </c>
@@ -4360,7 +4364,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>45</v>
@@ -4382,7 +4386,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>45231</v>
       </c>
@@ -4408,7 +4412,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>91</v>
@@ -4430,7 +4434,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>45261</v>
       </c>
@@ -4454,7 +4458,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="48" t="s">
         <v>158</v>
       </c>
@@ -4472,25 +4476,33 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>45292</v>
       </c>
-      <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
+      <c r="B123" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C123" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D123" s="39"/>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="39"/>
+      <c r="G123" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H123" s="39">
+        <v>2</v>
+      </c>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K123" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="41"/>
       <c r="B124" s="15"/>
       <c r="C124" s="42"/>
@@ -4508,23 +4520,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4547,34 +4559,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A79" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="D137" sqref="D137"/>
       <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4586,16 +4598,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4604,18 +4616,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>38930</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4626,16 +4638,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4643,7 +4655,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4656,24 +4668,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4708,7 +4720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4732,7 +4744,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -4754,7 +4766,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -4778,7 +4790,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
@@ -4800,7 +4812,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
@@ -4820,7 +4832,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43132</v>
       </c>
@@ -4844,7 +4856,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="15" t="s">
         <v>50</v>
@@ -4864,7 +4876,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43160</v>
       </c>
@@ -4888,7 +4900,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>52</v>
@@ -4908,7 +4920,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43191</v>
       </c>
@@ -4930,7 +4942,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43221</v>
       </c>
@@ -4952,7 +4964,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43282</v>
       </c>
@@ -4976,7 +4988,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>45</v>
@@ -4998,7 +5010,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>58</v>
@@ -5020,7 +5032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>60</v>
@@ -5040,7 +5052,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43313</v>
       </c>
@@ -5062,7 +5074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>63</v>
@@ -5082,7 +5094,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
@@ -5106,7 +5118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>55</v>
@@ -5128,7 +5140,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>67</v>
@@ -5148,7 +5160,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43405</v>
       </c>
@@ -5172,7 +5184,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>70</v>
@@ -5192,7 +5204,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43435</v>
       </c>
@@ -5216,7 +5228,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>74</v>
@@ -5236,7 +5248,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>45</v>
@@ -5258,7 +5270,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>78</v>
@@ -5280,7 +5292,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>79</v>
@@ -5302,7 +5314,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>77</v>
       </c>
@@ -5320,7 +5332,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43466</v>
       </c>
@@ -5344,7 +5356,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>45</v>
@@ -5366,7 +5378,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>55</v>
@@ -5388,7 +5400,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43497</v>
       </c>
@@ -5410,7 +5422,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>87</v>
@@ -5428,7 +5440,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43525</v>
       </c>
@@ -5450,7 +5462,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>45</v>
@@ -5472,7 +5484,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -5494,7 +5506,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>91</v>
@@ -5516,7 +5528,7 @@
         <v>43549</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>91</v>
@@ -5538,7 +5550,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>45</v>
@@ -5560,7 +5572,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>91</v>
@@ -5582,7 +5594,7 @@
         <v>43553</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>43556</v>
       </c>
@@ -5606,7 +5618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>55</v>
@@ -5628,7 +5640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>91</v>
@@ -5650,7 +5662,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>91</v>
@@ -5672,7 +5684,7 @@
         <v>43585</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>43586</v>
       </c>
@@ -5694,7 +5706,7 @@
         <v>43594</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>91</v>
@@ -5716,7 +5728,7 @@
         <v>43593</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>91</v>
@@ -5738,7 +5750,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>91</v>
@@ -5760,7 +5772,7 @@
         <v>43609</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>43617</v>
       </c>
@@ -5784,7 +5796,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>91</v>
@@ -5806,7 +5818,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>55</v>
@@ -5828,7 +5840,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>43647</v>
       </c>
@@ -5852,7 +5864,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>55</v>
@@ -5874,7 +5886,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>43678</v>
       </c>
@@ -5898,7 +5910,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>43709</v>
       </c>
@@ -5922,7 +5934,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>101</v>
@@ -5944,7 +5956,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>43739</v>
       </c>
@@ -5968,7 +5980,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>91</v>
@@ -5990,7 +6002,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>55</v>
@@ -6012,7 +6024,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>43770</v>
       </c>
@@ -6036,7 +6048,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>43800</v>
       </c>
@@ -6060,7 +6072,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>106</v>
@@ -6078,7 +6090,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="48" t="s">
         <v>107</v>
       </c>
@@ -6096,7 +6108,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>43831</v>
       </c>
@@ -6118,7 +6130,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>43862</v>
       </c>
@@ -6140,7 +6152,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>108</v>
@@ -6160,7 +6172,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -6182,7 +6194,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>45</v>
@@ -6204,7 +6216,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44013</v>
       </c>
@@ -6228,7 +6240,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>91</v>
@@ -6250,7 +6262,7 @@
         <v>44034</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>45</v>
@@ -6272,7 +6284,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44044</v>
       </c>
@@ -6296,7 +6308,7 @@
         <v>44062</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="48" t="s">
         <v>118</v>
       </c>
@@ -6314,7 +6326,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44228</v>
       </c>
@@ -6336,7 +6348,7 @@
         <v>44238</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>125</v>
       </c>
@@ -6354,7 +6366,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44593</v>
       </c>
@@ -6376,7 +6388,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44682</v>
       </c>
@@ -6398,7 +6410,7 @@
         <v>44707</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>136</v>
       </c>
@@ -6413,7 +6425,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="49"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44958</v>
       </c>
@@ -6432,7 +6444,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45261</v>
       </c>
@@ -6453,7 +6465,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -6466,7 +6478,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -6479,7 +6491,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -6492,7 +6504,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="49"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -6505,7 +6517,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="49"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -6518,7 +6530,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -6531,7 +6543,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -6544,7 +6556,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="49"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -6557,7 +6569,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="49"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -6570,7 +6582,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="49"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -6583,7 +6595,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -6596,7 +6608,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -6612,7 +6624,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -6628,7 +6640,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -6644,7 +6656,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -6660,7 +6672,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -6676,7 +6688,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -6692,7 +6704,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -6708,7 +6720,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -6724,7 +6736,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -6740,7 +6752,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -6756,7 +6768,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -6772,7 +6784,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -6788,7 +6800,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -6804,7 +6816,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -6820,7 +6832,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -6836,7 +6848,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="41"/>
       <c r="B115" s="15"/>
       <c r="C115" s="42"/>
@@ -6867,10 +6879,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6893,28 +6905,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -6927,7 +6939,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6956,7 +6968,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>40.25</v>
       </c>
@@ -6984,17 +6996,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -7015,7 +7027,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -7042,7 +7054,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7068,7 +7080,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7094,7 +7106,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7120,7 +7132,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7146,7 +7158,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7172,7 +7184,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7198,7 +7210,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7224,7 +7236,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7244,7 +7256,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7264,7 +7276,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7284,7 +7296,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7305,7 +7317,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7326,7 +7338,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7347,7 +7359,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7368,7 +7380,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7389,7 +7401,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7410,7 +7422,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7431,7 +7443,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7452,7 +7464,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7473,7 +7485,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7494,7 +7506,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7515,7 +7527,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7536,7 +7548,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7557,7 +7569,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7578,7 +7590,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7599,7 +7611,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7620,7 +7632,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7641,7 +7653,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7662,7 +7674,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7683,7 +7695,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7704,7 +7716,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7713,7 +7725,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7722,7 +7734,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7731,7 +7743,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7740,7 +7752,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7749,7 +7761,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7758,7 +7770,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7767,7 +7779,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7776,7 +7788,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7785,7 +7797,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7794,7 +7806,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7803,7 +7815,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7812,7 +7824,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7821,7 +7833,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7830,7 +7842,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7839,7 +7851,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7848,7 +7860,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7857,7 +7869,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7866,7 +7878,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7875,7 +7887,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7884,7 +7896,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7893,7 +7905,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7902,7 +7914,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7911,7 +7923,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7920,7 +7932,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7929,7 +7941,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7938,7 +7950,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7947,7 +7959,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7956,7 +7968,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7965,7 +7977,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
